--- a/unity_勉強生_進捗.xlsx
+++ b/unity_勉強生_進捗.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>杉本</t>
     <rPh sb="0" eb="2">
@@ -119,6 +119,10 @@
     <rPh sb="0" eb="3">
       <t>ギモンテン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ff</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -500,7 +504,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -544,6 +548,9 @@
     <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
       </c>
       <c r="E15" s="1">
         <v>43074</v>
